--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ccl12-Ccr5.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ccl12-Ccr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>Ccl12</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.1959613746812</v>
+        <v>29.48083233333334</v>
       </c>
       <c r="H2">
-        <v>29.1959613746812</v>
+        <v>88.442497</v>
       </c>
       <c r="I2">
-        <v>0.3807515482089957</v>
+        <v>0.3670116098006381</v>
       </c>
       <c r="J2">
-        <v>0.3807515482089957</v>
+        <v>0.367011609800638</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.188809412900946</v>
+        <v>0.320495</v>
       </c>
       <c r="N2">
-        <v>0.188809412900946</v>
+        <v>0.6409900000000001</v>
       </c>
       <c r="O2">
-        <v>0.001765855969444405</v>
+        <v>0.00294011664142989</v>
       </c>
       <c r="P2">
-        <v>0.001765855969444405</v>
+        <v>0.001962000597822644</v>
       </c>
       <c r="Q2">
-        <v>5.512472326232253</v>
+        <v>9.448459358671668</v>
       </c>
       <c r="R2">
-        <v>5.512472326232253</v>
+        <v>56.69075615203</v>
       </c>
       <c r="S2">
-        <v>0.0006723523942800543</v>
+        <v>0.001079056941572829</v>
       </c>
       <c r="T2">
-        <v>0.0006723523942800543</v>
+        <v>0.0007200769978367027</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.1959613746812</v>
+        <v>29.48083233333334</v>
       </c>
       <c r="H3">
-        <v>29.1959613746812</v>
+        <v>88.442497</v>
       </c>
       <c r="I3">
-        <v>0.3807515482089957</v>
+        <v>0.3670116098006381</v>
       </c>
       <c r="J3">
-        <v>0.3807515482089957</v>
+        <v>0.367011609800638</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>47.4832128187357</v>
+        <v>0.01137566666666667</v>
       </c>
       <c r="N3">
-        <v>47.4832128187357</v>
+        <v>0.034127</v>
       </c>
       <c r="O3">
-        <v>0.4440907554135159</v>
+        <v>0.0001043566572771055</v>
       </c>
       <c r="P3">
-        <v>0.4440907554135159</v>
+        <v>0.0001044590311890878</v>
       </c>
       <c r="Q3">
-        <v>1386.318047401575</v>
+        <v>0.3353641216798889</v>
       </c>
       <c r="R3">
-        <v>1386.318047401575</v>
+        <v>3.018277095119</v>
       </c>
       <c r="S3">
-        <v>0.1690882426689986</v>
+        <v>3.830010478068398E-05</v>
       </c>
       <c r="T3">
-        <v>0.1690882426689986</v>
+        <v>3.833767719492216E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.1959613746812</v>
+        <v>29.48083233333334</v>
       </c>
       <c r="H4">
-        <v>29.1959613746812</v>
+        <v>88.442497</v>
       </c>
       <c r="I4">
-        <v>0.3807515482089957</v>
+        <v>0.3670116098006381</v>
       </c>
       <c r="J4">
-        <v>0.3807515482089957</v>
+        <v>0.367011609800638</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>59.2502954250811</v>
+        <v>48.78764200000001</v>
       </c>
       <c r="N4">
-        <v>59.2502954250811</v>
+        <v>146.362926</v>
       </c>
       <c r="O4">
-        <v>0.5541433886170396</v>
+        <v>0.4475619218406647</v>
       </c>
       <c r="P4">
-        <v>0.5541433886170396</v>
+        <v>0.4480009802197716</v>
       </c>
       <c r="Q4">
-        <v>1729.869336669118</v>
+        <v>1438.300293740692</v>
       </c>
       <c r="R4">
-        <v>1729.869336669118</v>
+        <v>12944.70264366622</v>
       </c>
       <c r="S4">
-        <v>0.210990953145717</v>
+        <v>0.1642604214202097</v>
       </c>
       <c r="T4">
-        <v>0.210990953145717</v>
+        <v>0.1644215609427222</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>47.483861759368</v>
+        <v>29.48083233333334</v>
       </c>
       <c r="H5">
-        <v>47.483861759368</v>
+        <v>88.442497</v>
       </c>
       <c r="I5">
-        <v>0.6192484517910042</v>
+        <v>0.3670116098006381</v>
       </c>
       <c r="J5">
-        <v>0.6192484517910042</v>
+        <v>0.367011609800638</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.188809412900946</v>
+        <v>59.61647133333333</v>
       </c>
       <c r="N5">
-        <v>0.188809412900946</v>
+        <v>178.849414</v>
       </c>
       <c r="O5">
-        <v>0.001765855969444405</v>
+        <v>0.5469020717030258</v>
       </c>
       <c r="P5">
-        <v>0.001765855969444405</v>
+        <v>0.5474385827988417</v>
       </c>
       <c r="Q5">
-        <v>8.965400061055952</v>
+        <v>1757.543195682973</v>
       </c>
       <c r="R5">
-        <v>8.965400061055952</v>
+        <v>15817.88876114676</v>
       </c>
       <c r="S5">
-        <v>0.001093503575164351</v>
+        <v>0.2007194097390315</v>
       </c>
       <c r="T5">
-        <v>0.001093503575164351</v>
+        <v>0.2009163155399828</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>47.483861759368</v>
+        <v>29.48083233333334</v>
       </c>
       <c r="H6">
-        <v>47.483861759368</v>
+        <v>88.442497</v>
       </c>
       <c r="I6">
-        <v>0.6192484517910042</v>
+        <v>0.3670116098006381</v>
       </c>
       <c r="J6">
-        <v>0.6192484517910042</v>
+        <v>0.367011609800638</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>47.4832128187357</v>
+        <v>0.271596</v>
       </c>
       <c r="N6">
-        <v>47.4832128187357</v>
+        <v>0.814788</v>
       </c>
       <c r="O6">
-        <v>0.4440907554135159</v>
+        <v>0.002491533157602434</v>
       </c>
       <c r="P6">
-        <v>0.4440907554135159</v>
+        <v>0.00249397735237479</v>
       </c>
       <c r="Q6">
-        <v>2254.686313375496</v>
+        <v>8.006876138404001</v>
       </c>
       <c r="R6">
-        <v>2254.686313375496</v>
+        <v>72.06188524563599</v>
       </c>
       <c r="S6">
-        <v>0.2750025127445173</v>
+        <v>0.0009144215950433363</v>
       </c>
       <c r="T6">
-        <v>0.2750025127445173</v>
+        <v>0.0009153186429014046</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +835,619 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>50.60572933333333</v>
+      </c>
+      <c r="H7">
+        <v>151.817188</v>
+      </c>
+      <c r="I7">
+        <v>0.6299988405266995</v>
+      </c>
+      <c r="J7">
+        <v>0.6299988405266995</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.320495</v>
+      </c>
+      <c r="N7">
+        <v>0.6409900000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.00294011664142989</v>
+      </c>
+      <c r="P7">
+        <v>0.001962000597822644</v>
+      </c>
+      <c r="Q7">
+        <v>16.21888322268667</v>
+      </c>
+      <c r="R7">
+        <v>97.31329933612</v>
+      </c>
+      <c r="S7">
+        <v>0.001852270075114084</v>
+      </c>
+      <c r="T7">
+        <v>0.001236058101740957</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>50.60572933333333</v>
+      </c>
+      <c r="H8">
+        <v>151.817188</v>
+      </c>
+      <c r="I8">
+        <v>0.6299988405266995</v>
+      </c>
+      <c r="J8">
+        <v>0.6299988405266995</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.01137566666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.034127</v>
+      </c>
+      <c r="O8">
+        <v>0.0001043566572771055</v>
+      </c>
+      <c r="P8">
+        <v>0.0001044590311890878</v>
+      </c>
+      <c r="Q8">
+        <v>0.5756739083195554</v>
+      </c>
+      <c r="R8">
+        <v>5.181065174875999</v>
+      </c>
+      <c r="S8">
+        <v>6.574457308581865E-05</v>
+      </c>
+      <c r="T8">
+        <v>6.580906853166764E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>50.60572933333333</v>
+      </c>
+      <c r="H9">
+        <v>151.817188</v>
+      </c>
+      <c r="I9">
+        <v>0.6299988405266995</v>
+      </c>
+      <c r="J9">
+        <v>0.6299988405266995</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>48.78764200000001</v>
+      </c>
+      <c r="N9">
+        <v>146.362926</v>
+      </c>
+      <c r="O9">
+        <v>0.4475619218406647</v>
+      </c>
+      <c r="P9">
+        <v>0.4480009802197716</v>
+      </c>
+      <c r="Q9">
+        <v>2468.934205863565</v>
+      </c>
+      <c r="R9">
+        <v>22220.40785277209</v>
+      </c>
+      <c r="S9">
+        <v>0.28196349182352</v>
+      </c>
+      <c r="T9">
+        <v>0.282240098093281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>50.60572933333333</v>
+      </c>
+      <c r="H10">
+        <v>151.817188</v>
+      </c>
+      <c r="I10">
+        <v>0.6299988405266995</v>
+      </c>
+      <c r="J10">
+        <v>0.6299988405266995</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>59.61647133333333</v>
+      </c>
+      <c r="N10">
+        <v>178.849414</v>
+      </c>
+      <c r="O10">
+        <v>0.5469020717030258</v>
+      </c>
+      <c r="P10">
+        <v>0.5474385827988417</v>
+      </c>
+      <c r="Q10">
+        <v>3016.935012103092</v>
+      </c>
+      <c r="R10">
+        <v>27152.41510892783</v>
+      </c>
+      <c r="S10">
+        <v>0.3445476710545562</v>
+      </c>
+      <c r="T10">
+        <v>0.3448856724228499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>50.60572933333333</v>
+      </c>
+      <c r="H11">
+        <v>151.817188</v>
+      </c>
+      <c r="I11">
+        <v>0.6299988405266995</v>
+      </c>
+      <c r="J11">
+        <v>0.6299988405266995</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.271596</v>
+      </c>
+      <c r="N11">
+        <v>0.814788</v>
+      </c>
+      <c r="O11">
+        <v>0.002491533157602434</v>
+      </c>
+      <c r="P11">
+        <v>0.00249397735237479</v>
+      </c>
+      <c r="Q11">
+        <v>13.744313664016</v>
+      </c>
+      <c r="R11">
+        <v>123.698822976144</v>
+      </c>
+      <c r="S11">
+        <v>0.00156966300042336</v>
+      </c>
+      <c r="T11">
+        <v>0.001571202840295965</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.2401406666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.720422</v>
+      </c>
+      <c r="I12">
+        <v>0.0029895496726624</v>
+      </c>
+      <c r="J12">
+        <v>0.0029895496726624</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.320495</v>
+      </c>
+      <c r="N12">
+        <v>0.6409900000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.00294011664142989</v>
+      </c>
+      <c r="P12">
+        <v>0.001962000597822644</v>
+      </c>
+      <c r="Q12">
+        <v>0.07696388296333334</v>
+      </c>
+      <c r="R12">
+        <v>0.46178329778</v>
+      </c>
+      <c r="S12">
+        <v>8.789624742976E-06</v>
+      </c>
+      <c r="T12">
+        <v>5.865498244984118E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.2401406666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.720422</v>
+      </c>
+      <c r="I13">
+        <v>0.0029895496726624</v>
+      </c>
+      <c r="J13">
+        <v>0.0029895496726624</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.01137566666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.034127</v>
+      </c>
+      <c r="O13">
+        <v>0.0001043566572771055</v>
+      </c>
+      <c r="P13">
+        <v>0.0001044590311890878</v>
+      </c>
+      <c r="Q13">
+        <v>0.002731760177111111</v>
+      </c>
+      <c r="R13">
+        <v>0.024585841594</v>
+      </c>
+      <c r="S13">
+        <v>3.119794106029131E-07</v>
+      </c>
+      <c r="T13">
+        <v>3.122854624979687E-07</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.2401406666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.720422</v>
+      </c>
+      <c r="I14">
+        <v>0.0029895496726624</v>
+      </c>
+      <c r="J14">
+        <v>0.0029895496726624</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>48.78764200000001</v>
+      </c>
+      <c r="N14">
+        <v>146.362926</v>
+      </c>
+      <c r="O14">
+        <v>0.4475619218406647</v>
+      </c>
+      <c r="P14">
+        <v>0.4480009802197716</v>
+      </c>
+      <c r="Q14">
+        <v>11.71589687497467</v>
+      </c>
+      <c r="R14">
+        <v>105.443071874772</v>
+      </c>
+      <c r="S14">
+        <v>0.001338008596934914</v>
+      </c>
+      <c r="T14">
+        <v>0.001339321183768452</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>47.483861759368</v>
-      </c>
-      <c r="H7">
-        <v>47.483861759368</v>
-      </c>
-      <c r="I7">
-        <v>0.6192484517910042</v>
-      </c>
-      <c r="J7">
-        <v>0.6192484517910042</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>59.2502954250811</v>
-      </c>
-      <c r="N7">
-        <v>59.2502954250811</v>
-      </c>
-      <c r="O7">
-        <v>0.5541433886170396</v>
-      </c>
-      <c r="P7">
-        <v>0.5541433886170396</v>
-      </c>
-      <c r="Q7">
-        <v>2813.432837166265</v>
-      </c>
-      <c r="R7">
-        <v>2813.432837166265</v>
-      </c>
-      <c r="S7">
-        <v>0.3431524354713226</v>
-      </c>
-      <c r="T7">
-        <v>0.3431524354713226</v>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.2401406666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.720422</v>
+      </c>
+      <c r="I15">
+        <v>0.0029895496726624</v>
+      </c>
+      <c r="J15">
+        <v>0.0029895496726624</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>59.61647133333333</v>
+      </c>
+      <c r="N15">
+        <v>178.849414</v>
+      </c>
+      <c r="O15">
+        <v>0.5469020717030258</v>
+      </c>
+      <c r="P15">
+        <v>0.5474385827988417</v>
+      </c>
+      <c r="Q15">
+        <v>14.31633917030089</v>
+      </c>
+      <c r="R15">
+        <v>128.847052532708</v>
+      </c>
+      <c r="S15">
+        <v>0.001634990909438169</v>
+      </c>
+      <c r="T15">
+        <v>0.001636594836009045</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.2401406666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.720422</v>
+      </c>
+      <c r="I16">
+        <v>0.0029895496726624</v>
+      </c>
+      <c r="J16">
+        <v>0.0029895496726624</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.271596</v>
+      </c>
+      <c r="N16">
+        <v>0.814788</v>
+      </c>
+      <c r="O16">
+        <v>0.002491533157602434</v>
+      </c>
+      <c r="P16">
+        <v>0.00249397735237479</v>
+      </c>
+      <c r="Q16">
+        <v>0.06522124450400001</v>
+      </c>
+      <c r="R16">
+        <v>0.586991200536</v>
+      </c>
+      <c r="S16">
+        <v>7.448562135737872E-06</v>
+      </c>
+      <c r="T16">
+        <v>7.45586917741949E-06</v>
       </c>
     </row>
   </sheetData>
